--- a/Hulk.xlsx
+++ b/Hulk.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\gitStuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AF81E00-9278-4D4E-9710-835918B2FE19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A6D037F-AFAF-4AC0-A1B0-6A9FB2CE84D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Hulk" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hulk!$A$5:$G$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hulk!$A$5:$G$12</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Resource 1</t>
   </si>
@@ -66,40 +66,16 @@
     <t>Delivery date</t>
   </si>
   <si>
-    <t>Nestor</t>
-  </si>
-  <si>
     <t>Beatriz</t>
   </si>
   <si>
     <t>https://www.kayak.com.co/?ispredir=true</t>
   </si>
   <si>
-    <t>As a User I want to be able to sign up</t>
-  </si>
-  <si>
     <t>As a user I want to select one way flight with one passenger.</t>
   </si>
   <si>
     <t>As a user I want to select one way flights with &gt;2 passengers</t>
-  </si>
-  <si>
-    <t>- click on "flights" menu
-- click on One way- click on two and economy options
-- Enter "origin" value, check if "BOG" value is present in the options and select it.
-- Validate if "CTG" value is present in the options and select it.
-- enter departure date as of current date
-- Click on search
-- Sort the results by the cheapest. A8</t>
-  </si>
-  <si>
-    <t>- click on "flights" menu
-- click on One way- click on One adult and economy options
-- Enter "origin" value, check if "BOG" value is present in the options and select it.
-- Validate if "CTG" value is present in the options and select it. Validate there's only one calendar for departured date -  no return date
-- enter departure date as of current date
-- Click on search
-- Sort the results by the cheapest. A8</t>
   </si>
   <si>
     <t>As a user I want to open the web page and be able to change language and currency</t>
@@ -134,15 +110,66 @@
 - Validate results are displayed based on filter</t>
   </si>
   <si>
-    <t xml:space="preserve">- - invoke browser, enter web page and click on "Country" button
-- Select United States
-- click on "Currency" button
-- Select US Dolar
-</t>
+    <t>https://beatae@bitbucket.org/beatae/kayak.git</t>
+  </si>
+  <si>
+    <t>As a user I want to search for packages</t>
+  </si>
+  <si>
+    <t>-Click on "Packages" menu
+- Click on "Las vegas Vacations" hyperlink
+- Change travelers to 1
+- Switch origin to "CTG" and select it
+- change date from to "may 15th" and validate the return date is set after from date
+- Click on search
+- In the result page, sort the information by price (low to high)
+- Validate results are displayed based on filter</t>
+  </si>
+  <si>
+    <t>As a user I want to find things to do</t>
+  </si>
+  <si>
+    <t>-Click on "Things to do" menu
+- Validate if "NY" is present in the field and insert it
+- Click on search
+- Confirm that you have landed in "Things to do in New York"
+- Click on Macy's Herald square" View experiences
+- - In the result page, filter with the recommended filters by "free cancellation"
+- Validate results are displayed based on filter</t>
+  </si>
+  <si>
+    <t>As a user I want to find deals</t>
+  </si>
+  <si>
+    <t>-Click on "Deals" menu
+- Validate if "London" is present in the field and select it
+-Select Refundable deals
+- Select July
+- Select any budget
+-Click on "clear filters"
+- Validate the filters have been cleaned</t>
+  </si>
+  <si>
+    <t>- click on "flights" menu
+- click on one way and economy options
+- Enter "origin" value, check if "BOG" value is present in the options and select it.
+- Validate if "CTG" value is present in the options and select it.
+- enter departure date as of current date
+- Click on search
+- Sort the results by the cheapest. A8</t>
+  </si>
+  <si>
+    <t>- click on "flights" menu
+- click on C9- click on One adult and economy options
+- Enter "origin" value, check if "BOG" value is present in the options and select it.
+- Validate if "CTG" value is present in the options and select it. Validate there's only one calendar for departured date -  no return date
+- enter departure date as of current date
+- Click on search
+- Sort the results by the cheapest. A8</t>
   </si>
   <si>
     <t xml:space="preserve">
-- click on One way- click on two and economy options
+- click on round trip- click on two passengers and economy options
 - Enter "origin" value, check if "BOG" value is present in the options and select it.
 - Validate if "CTG" value is present in the options and select it.
 - enter departure date as of current date- enter return date as +6 days from current date
@@ -150,15 +177,30 @@
 - Select "1 stop" and unselect the other options from the Stops filter- validate results according to filter applied</t>
   </si>
   <si>
-    <t>https://beatae@bitbucket.org/beatae/kayak.git</t>
+    <t xml:space="preserve">- - invoke browser, validate url and enter web page and click on "Country" button
+- Select United States
+- click on "Currency" button
+- Select US Dolar
+</t>
+  </si>
+  <si>
+    <t>Sebastian</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -206,9 +248,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -217,6 +256,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -531,10 +571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -553,13 +593,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -567,14 +607,17 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s">
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>28</v>
-      </c>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="9"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -605,96 +648,116 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
+      <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" ht="210" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>2</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" ht="240" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>3</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" ht="270" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>4</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" ht="285" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>5</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" ht="210" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>6</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" ht="225" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>7</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" ht="195" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>8</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
-        <v>2</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" ht="210" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
-        <v>3</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" ht="240" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
-        <v>4</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:7" ht="255" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
-        <v>5</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="2" t="s">
+    </row>
+    <row r="14" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>9</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:7" ht="285" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
-        <v>6</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="3">
-        <v>44319</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="210" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
-        <v>7</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="C13" s="2"/>
-      <c r="G13" s="3"/>
+      <c r="C14" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F16" s="9"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:G13" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A5:G12" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
